--- a/medicine/Handicap/My_Two_Daddies/My_Two_Daddies.xlsx
+++ b/medicine/Handicap/My_Two_Daddies/My_Two_Daddies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">My Two Daddies (Any Day Now) est un film américain réalisé par Travis Fine, sorti en 2012.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans les années 1970, un couple gay s'occupe d'un adolescent abandonné atteint de trisomie 21 et doit se battre contre le système judiciaire pour en avoir le droit.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : My Two Daddies
 Titre original : Any Day Now
@@ -587,7 +603,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Alan Cumming : Rudy Donatello
 Garret Dillahunt : Paul Fliger
@@ -647,9 +665,11 @@
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film a reçu un accueil mitigé de la critique. Il obtient un score moyen de 60 % sur Metacritic[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film a reçu un accueil mitigé de la critique. Il obtient un score moyen de 60 % sur Metacritic.
 </t>
         </is>
       </c>
